--- a/data/georgia_census/guria/ozurgeti/education_graduates.xlsx
+++ b/data/georgia_census/guria/ozurgeti/education_graduates.xlsx
@@ -1813,13 +1813,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4FB9E7B-7D80-4A3C-8DCC-47C31FC2F0B3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89D2CC8A-1FC5-45F8-8BF9-1A8B70A94DFB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFEE4E74-E0A2-4310-BF31-E1BD5E48D97A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4227A9B0-3D56-4B48-A4CD-3D617354D64D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65BAC7FB-6FFA-4561-ADB8-A2EB452B717D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B8132A-7316-48B6-AC6D-470F5776AE22}"/>
 </file>